--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.91686566666667</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N2">
-        <v>83.750597</v>
+        <v>92.249425</v>
       </c>
       <c r="O2">
-        <v>0.7394739524872079</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P2">
-        <v>0.7394739524872082</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q2">
-        <v>890.8374847467643</v>
+        <v>1151.480948952736</v>
       </c>
       <c r="R2">
-        <v>8017.537362720878</v>
+        <v>10363.32854057462</v>
       </c>
       <c r="S2">
-        <v>0.4288787530252713</v>
+        <v>0.486116066015316</v>
       </c>
       <c r="T2">
-        <v>0.4288787530252715</v>
+        <v>0.4861160660153163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H3">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I3">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J3">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.775467</v>
       </c>
       <c r="O3">
-        <v>0.1304596429603279</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P3">
-        <v>0.1304596429603279</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q3">
-        <v>157.1635347057743</v>
+        <v>184.4311632552705</v>
       </c>
       <c r="R3">
-        <v>1414.471812351969</v>
+        <v>1659.880469297435</v>
       </c>
       <c r="S3">
-        <v>0.07566374556501425</v>
+        <v>0.07786056001518842</v>
       </c>
       <c r="T3">
-        <v>0.07566374556501428</v>
+        <v>0.07786056001518847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H4">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I4">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J4">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,22 +691,22 @@
         <v>0.131706</v>
       </c>
       <c r="O4">
-        <v>0.001162895070303561</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P4">
-        <v>0.001162895070303561</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q4">
-        <v>1.400929019838</v>
+        <v>1.64398802337</v>
       </c>
       <c r="R4">
-        <v>12.608361178542</v>
+        <v>14.79589221033</v>
       </c>
       <c r="S4">
-        <v>0.0006744537599647961</v>
+        <v>0.0006940357903652322</v>
       </c>
       <c r="T4">
-        <v>0.0006744537599647965</v>
+        <v>0.0006940357903652326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H5">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I5">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J5">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.804131333333333</v>
+        <v>2.297296</v>
       </c>
       <c r="N5">
-        <v>14.412394</v>
+        <v>6.891888</v>
       </c>
       <c r="O5">
-        <v>0.1272538983332014</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P5">
-        <v>0.1272538983332014</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q5">
-        <v>153.3016035711287</v>
+        <v>86.02631110509331</v>
       </c>
       <c r="R5">
-        <v>1379.714432140158</v>
+        <v>774.2367999458399</v>
       </c>
       <c r="S5">
-        <v>0.07380448364838404</v>
+        <v>0.0363173806446833</v>
       </c>
       <c r="T5">
-        <v>0.07380448364838407</v>
+        <v>0.03631738064468333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H6">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I6">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J6">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06227666666666667</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N6">
-        <v>0.18683</v>
+        <v>0.261036</v>
       </c>
       <c r="O6">
-        <v>0.001649611148959154</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P6">
-        <v>0.001649611148959154</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q6">
-        <v>1.987271413423333</v>
+        <v>3.258318206219999</v>
       </c>
       <c r="R6">
-        <v>17.88544272081</v>
+        <v>29.32486385598</v>
       </c>
       <c r="S6">
-        <v>0.0009567384627444677</v>
+        <v>0.001375551049866967</v>
       </c>
       <c r="T6">
-        <v>0.0009567384627444682</v>
+        <v>0.001375551049866968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.420477</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H7">
-        <v>34.261431</v>
+        <v>112.340305</v>
       </c>
       <c r="I7">
-        <v>0.2075697527013293</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J7">
-        <v>0.2075697527013294</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>27.91686566666667</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N7">
-        <v>83.750597</v>
+        <v>0.106456</v>
       </c>
       <c r="O7">
-        <v>0.7394739524872079</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P7">
-        <v>0.7394739524872082</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q7">
-        <v>318.8239222582563</v>
+        <v>1.328811056564444</v>
       </c>
       <c r="R7">
-        <v>2869.415300324307</v>
+        <v>11.95929950908</v>
       </c>
       <c r="S7">
-        <v>0.1534924254468443</v>
+        <v>0.0005609788020220883</v>
       </c>
       <c r="T7">
-        <v>0.1534924254468444</v>
+        <v>0.0005609788020220887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J8">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.925155666666666</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N8">
-        <v>14.775467</v>
+        <v>92.249425</v>
       </c>
       <c r="O8">
-        <v>0.1304596429603279</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P8">
-        <v>0.1304596429603279</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q8">
-        <v>56.24762701258633</v>
+        <v>351.1774788252417</v>
       </c>
       <c r="R8">
-        <v>506.228643113277</v>
+        <v>3160.597309427175</v>
       </c>
       <c r="S8">
-        <v>0.02707947582677898</v>
+        <v>0.1482551792411032</v>
       </c>
       <c r="T8">
-        <v>0.02707947582677899</v>
+        <v>0.1482551792411032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J9">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.043902</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N9">
-        <v>0.131706</v>
+        <v>14.775467</v>
       </c>
       <c r="O9">
-        <v>0.001162895070303561</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P9">
-        <v>0.001162895070303561</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q9">
-        <v>0.501381781254</v>
+        <v>56.24762701258633</v>
       </c>
       <c r="R9">
-        <v>4.512436031286</v>
+        <v>506.228643113277</v>
       </c>
       <c r="S9">
-        <v>0.0002413818421605051</v>
+        <v>0.02374583373778216</v>
       </c>
       <c r="T9">
-        <v>0.0002413818421605052</v>
+        <v>0.02374583373778216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>34.261431</v>
       </c>
       <c r="I10">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J10">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.804131333333333</v>
+        <v>0.043902</v>
       </c>
       <c r="N10">
-        <v>14.412394</v>
+        <v>0.131706</v>
       </c>
       <c r="O10">
-        <v>0.1272538983332014</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P10">
-        <v>0.1272538983332014</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q10">
-        <v>54.86547139731267</v>
+        <v>0.501381781254</v>
       </c>
       <c r="R10">
-        <v>493.789242575814</v>
+        <v>4.512436031286</v>
       </c>
       <c r="S10">
-        <v>0.02641406020730272</v>
+        <v>0.0002116663235259052</v>
       </c>
       <c r="T10">
-        <v>0.02641406020730273</v>
+        <v>0.0002116663235259053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>34.261431</v>
       </c>
       <c r="I11">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J11">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06227666666666667</v>
+        <v>2.297296</v>
       </c>
       <c r="N11">
-        <v>0.18683</v>
+        <v>6.891888</v>
       </c>
       <c r="O11">
-        <v>0.001649611148959154</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P11">
-        <v>0.001649611148959154</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q11">
-        <v>0.7112292393033334</v>
+        <v>26.236216130192</v>
       </c>
       <c r="R11">
-        <v>6.40106315373</v>
+        <v>236.125945171728</v>
       </c>
       <c r="S11">
-        <v>0.0003424093782428073</v>
+        <v>0.0110760375010425</v>
       </c>
       <c r="T11">
-        <v>0.0003424093782428074</v>
+        <v>0.01107603750104251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6836493333333333</v>
+        <v>11.420477</v>
       </c>
       <c r="H12">
-        <v>2.050948</v>
+        <v>34.261431</v>
       </c>
       <c r="I12">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J12">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>27.91686566666667</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N12">
-        <v>83.750597</v>
+        <v>0.261036</v>
       </c>
       <c r="O12">
-        <v>0.7394739524872079</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P12">
-        <v>0.7394739524872082</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q12">
-        <v>19.08534660177289</v>
+        <v>0.9937185447239999</v>
       </c>
       <c r="R12">
-        <v>171.768119415956</v>
+        <v>8.943466902516001</v>
       </c>
       <c r="S12">
-        <v>0.009188319746053643</v>
+        <v>0.0004195141483904165</v>
       </c>
       <c r="T12">
-        <v>0.009188319746053646</v>
+        <v>0.0004195141483904168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6836493333333333</v>
+        <v>11.420477</v>
       </c>
       <c r="H13">
-        <v>2.050948</v>
+        <v>34.261431</v>
       </c>
       <c r="I13">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J13">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.925155666666666</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N13">
-        <v>14.775467</v>
+        <v>0.106456</v>
       </c>
       <c r="O13">
-        <v>0.1304596429603279</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P13">
-        <v>0.1304596429603279</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q13">
-        <v>3.367079388079555</v>
+        <v>0.4052594331706666</v>
       </c>
       <c r="R13">
-        <v>30.303714492716</v>
+        <v>3.647334898536</v>
       </c>
       <c r="S13">
-        <v>0.001621023850054036</v>
+        <v>0.0001710867396874385</v>
       </c>
       <c r="T13">
-        <v>0.001621023850054036</v>
+        <v>0.0001710867396874385</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H14">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I14">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J14">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.043902</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N14">
-        <v>0.131706</v>
+        <v>92.249425</v>
       </c>
       <c r="O14">
-        <v>0.001162895070303561</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P14">
-        <v>0.001162895070303561</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q14">
-        <v>0.030013573032</v>
+        <v>38.27159069930278</v>
       </c>
       <c r="R14">
-        <v>0.270122157288</v>
+        <v>344.444316293725</v>
       </c>
       <c r="S14">
-        <v>1.444953091467206E-05</v>
+        <v>0.01615696302037305</v>
       </c>
       <c r="T14">
-        <v>1.444953091467207E-05</v>
+        <v>0.01615696302037306</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H15">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I15">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J15">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.804131333333333</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N15">
-        <v>14.412394</v>
+        <v>14.775467</v>
       </c>
       <c r="O15">
-        <v>0.1272538983332014</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P15">
-        <v>0.1272538983332014</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q15">
-        <v>3.284341183279111</v>
+        <v>6.129909486319887</v>
       </c>
       <c r="R15">
-        <v>29.559070649512</v>
+        <v>55.16918537687899</v>
       </c>
       <c r="S15">
-        <v>0.001581190930234265</v>
+        <v>0.00258783915376971</v>
       </c>
       <c r="T15">
-        <v>0.001581190930234266</v>
+        <v>0.002587839153769711</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H16">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I16">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J16">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,43 +1429,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.06227666666666667</v>
+        <v>0.043902</v>
       </c>
       <c r="N16">
-        <v>0.18683</v>
+        <v>0.131706</v>
       </c>
       <c r="O16">
-        <v>0.001649611148959154</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P16">
-        <v>0.001649611148959154</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q16">
-        <v>0.04257540164888889</v>
+        <v>0.05464097065799999</v>
       </c>
       <c r="R16">
-        <v>0.38317861484</v>
+        <v>0.4917687359219999</v>
       </c>
       <c r="S16">
-        <v>2.049721243366423E-05</v>
+        <v>2.306755810739474E-05</v>
       </c>
       <c r="T16">
-        <v>2.049721243366424E-05</v>
+        <v>2.306755810739475E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.899486</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H17">
-        <v>29.698458</v>
+        <v>3.733837</v>
       </c>
       <c r="I17">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J17">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.91686566666667</v>
+        <v>2.297296</v>
       </c>
       <c r="N17">
-        <v>83.750597</v>
+        <v>6.891888</v>
       </c>
       <c r="O17">
-        <v>0.7394739524872079</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P17">
-        <v>0.7394739524872082</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q17">
-        <v>276.3626208310473</v>
+        <v>2.859242934917333</v>
       </c>
       <c r="R17">
-        <v>2487.263587479426</v>
+        <v>25.733186414256</v>
       </c>
       <c r="S17">
-        <v>0.1330501446495693</v>
+        <v>0.001207075052842365</v>
       </c>
       <c r="T17">
-        <v>0.1330501446495693</v>
+        <v>0.001207075052842365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.899486</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H18">
-        <v>29.698458</v>
+        <v>3.733837</v>
       </c>
       <c r="I18">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J18">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>4.925155666666666</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N18">
-        <v>14.775467</v>
+        <v>0.261036</v>
       </c>
       <c r="O18">
-        <v>0.1304596429603279</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P18">
-        <v>0.1304596429603279</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q18">
-        <v>48.75650956998732</v>
+        <v>0.108296208348</v>
       </c>
       <c r="R18">
-        <v>438.808586129886</v>
+        <v>0.9746658751319999</v>
       </c>
       <c r="S18">
-        <v>0.02347300308336831</v>
+        <v>4.571897330510298E-05</v>
       </c>
       <c r="T18">
-        <v>0.02347300308336832</v>
+        <v>4.5718973305103E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.899486</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H19">
-        <v>29.698458</v>
+        <v>3.733837</v>
       </c>
       <c r="I19">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J19">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.043902</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N19">
-        <v>0.131706</v>
+        <v>0.106456</v>
       </c>
       <c r="O19">
-        <v>0.001162895070303561</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P19">
-        <v>0.001162895070303561</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q19">
-        <v>0.4346072343719999</v>
+        <v>0.04416548351911111</v>
       </c>
       <c r="R19">
-        <v>3.911465109348</v>
+        <v>0.3974893516719999</v>
       </c>
       <c r="S19">
-        <v>0.0002092343574722956</v>
+        <v>1.864516397036441E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002092343574722957</v>
+        <v>1.864516397036441E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H20">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I20">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J20">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.804131333333333</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N20">
-        <v>14.412394</v>
+        <v>92.249425</v>
       </c>
       <c r="O20">
-        <v>0.1272538983332014</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P20">
-        <v>0.1272538983332014</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q20">
-        <v>47.55843087649466</v>
+        <v>308.6846466873639</v>
       </c>
       <c r="R20">
-        <v>428.0258778884519</v>
+        <v>2778.161820186275</v>
       </c>
       <c r="S20">
-        <v>0.02289620820788399</v>
+        <v>0.130316151755237</v>
       </c>
       <c r="T20">
-        <v>0.022896208207884</v>
+        <v>0.1303161517552371</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H21">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I21">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J21">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.06227666666666667</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N21">
-        <v>0.18683</v>
+        <v>14.775467</v>
       </c>
       <c r="O21">
-        <v>0.001649611148959154</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P21">
-        <v>0.001649611148959154</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q21">
-        <v>0.6165069897933333</v>
+        <v>49.44160693181344</v>
       </c>
       <c r="R21">
-        <v>5.54856290814</v>
+        <v>444.974462386321</v>
       </c>
       <c r="S21">
-        <v>0.0002968069412672846</v>
+        <v>0.02087256370244581</v>
       </c>
       <c r="T21">
-        <v>0.0002968069412672848</v>
+        <v>0.02087256370244581</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H22">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I22">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J22">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>27.91686566666667</v>
+        <v>0.043902</v>
       </c>
       <c r="N22">
-        <v>83.750597</v>
+        <v>0.131706</v>
       </c>
       <c r="O22">
-        <v>0.7394739524872079</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P22">
-        <v>0.7394739524872082</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q22">
-        <v>18.336690709568</v>
+        <v>0.4407140757419999</v>
       </c>
       <c r="R22">
-        <v>165.030216386112</v>
+        <v>3.966426681678</v>
       </c>
       <c r="S22">
-        <v>0.008827891934032321</v>
+        <v>0.0001860544830829595</v>
       </c>
       <c r="T22">
-        <v>0.008827891934032326</v>
+        <v>0.0001860544830829597</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H23">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I23">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J23">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,43 +1863,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.925155666666666</v>
+        <v>2.297296</v>
       </c>
       <c r="N23">
-        <v>14.775467</v>
+        <v>6.891888</v>
       </c>
       <c r="O23">
-        <v>0.1304596429603279</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P23">
-        <v>0.1304596429603279</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q23">
-        <v>3.234999846848</v>
+        <v>23.06160729228266</v>
       </c>
       <c r="R23">
-        <v>29.114998621632</v>
+        <v>207.554465630544</v>
       </c>
       <c r="S23">
-        <v>0.00155743637207578</v>
+        <v>0.009735825697429517</v>
       </c>
       <c r="T23">
-        <v>0.001557436372075781</v>
+        <v>0.009735825697429522</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H24">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I24">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J24">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,33 +1925,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.043902</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N24">
-        <v>0.131706</v>
+        <v>0.261036</v>
       </c>
       <c r="O24">
-        <v>0.001162895070303561</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P24">
-        <v>0.001162895070303561</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q24">
-        <v>0.028836238464</v>
+        <v>0.8734775900519999</v>
       </c>
       <c r="R24">
-        <v>0.259526146176</v>
+        <v>7.861298310468</v>
       </c>
       <c r="S24">
-        <v>1.388272295018579E-05</v>
+        <v>0.0003687525097265381</v>
       </c>
       <c r="T24">
-        <v>1.388272295018579E-05</v>
+        <v>0.0003687525097265383</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H25">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I25">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J25">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>4.804131333333333</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N25">
-        <v>14.412394</v>
+        <v>0.106456</v>
       </c>
       <c r="O25">
-        <v>0.1272538983332014</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P25">
-        <v>0.1272538983332014</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q25">
-        <v>3.155507191936</v>
+        <v>0.3562226295475556</v>
       </c>
       <c r="R25">
-        <v>28.399564727424</v>
+        <v>3.206003665928</v>
       </c>
       <c r="S25">
-        <v>0.001519165967768514</v>
+        <v>0.0001503850701644538</v>
       </c>
       <c r="T25">
-        <v>0.001519165967768515</v>
+        <v>0.0001503850701644538</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H26">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I26">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J26">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.06227666666666667</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N26">
-        <v>0.18683</v>
+        <v>92.249425</v>
       </c>
       <c r="O26">
-        <v>0.001649611148959154</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P26">
-        <v>0.001649611148959154</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q26">
-        <v>0.04090530752</v>
+        <v>40.81044862434445</v>
       </c>
       <c r="R26">
-        <v>0.36814776768</v>
+        <v>367.2940376191</v>
       </c>
       <c r="S26">
-        <v>1.969317365027569E-05</v>
+        <v>0.01722878242634372</v>
       </c>
       <c r="T26">
-        <v>1.96931736502757E-05</v>
+        <v>0.01722878242634373</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4491346666666667</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H27">
-        <v>1.347404</v>
+        <v>3.981532</v>
       </c>
       <c r="I27">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J27">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.91686566666667</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N27">
-        <v>83.750597</v>
+        <v>14.775467</v>
       </c>
       <c r="O27">
-        <v>0.7394739524872079</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P27">
-        <v>0.7394739524872082</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q27">
-        <v>12.53843215557644</v>
+        <v>6.536554963938221</v>
       </c>
       <c r="R27">
-        <v>112.845889400188</v>
+        <v>58.82899467544399</v>
       </c>
       <c r="S27">
-        <v>0.00603641768543701</v>
+        <v>0.002759511034248957</v>
       </c>
       <c r="T27">
-        <v>0.006036417685437011</v>
+        <v>0.002759511034248957</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4491346666666667</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H28">
-        <v>1.347404</v>
+        <v>3.981532</v>
       </c>
       <c r="I28">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J28">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>4.925155666666666</v>
+        <v>0.043902</v>
       </c>
       <c r="N28">
-        <v>14.775467</v>
+        <v>0.131706</v>
       </c>
       <c r="O28">
-        <v>0.1304596429603279</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P28">
-        <v>0.1304596429603279</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q28">
-        <v>2.212058148629778</v>
+        <v>0.058265739288</v>
       </c>
       <c r="R28">
-        <v>19.908523337668</v>
+        <v>0.524391653592</v>
       </c>
       <c r="S28">
-        <v>0.001064958263036512</v>
+        <v>2.459781205404831E-05</v>
       </c>
       <c r="T28">
-        <v>0.001064958263036512</v>
+        <v>2.459781205404833E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4491346666666667</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H29">
-        <v>1.347404</v>
+        <v>3.981532</v>
       </c>
       <c r="I29">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J29">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.043902</v>
+        <v>2.297296</v>
       </c>
       <c r="N29">
-        <v>0.131706</v>
+        <v>6.891888</v>
       </c>
       <c r="O29">
-        <v>0.001162895070303561</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P29">
-        <v>0.001162895070303561</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q29">
-        <v>0.019717910136</v>
+        <v>3.048919179157333</v>
       </c>
       <c r="R29">
-        <v>0.177461191224</v>
+        <v>27.440272612416</v>
       </c>
       <c r="S29">
-        <v>9.492856841106059E-06</v>
+        <v>0.001287149907533073</v>
       </c>
       <c r="T29">
-        <v>9.492856841106064E-06</v>
+        <v>0.001287149907533074</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,61 +2279,61 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4491346666666667</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H30">
-        <v>1.347404</v>
+        <v>3.981532</v>
       </c>
       <c r="I30">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J30">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>4.804131333333333</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N30">
-        <v>14.412394</v>
+        <v>0.261036</v>
       </c>
       <c r="O30">
-        <v>0.1272538983332014</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P30">
-        <v>0.1272538983332014</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q30">
-        <v>2.157701925019555</v>
+        <v>0.115480354128</v>
       </c>
       <c r="R30">
-        <v>19.419317325176</v>
+        <v>1.039323187152</v>
       </c>
       <c r="S30">
-        <v>0.001038789371627837</v>
+        <v>4.875187514115193E-05</v>
       </c>
       <c r="T30">
-        <v>0.001038789371627838</v>
+        <v>4.875187514115195E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4491346666666667</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H31">
-        <v>1.347404</v>
+        <v>3.981532</v>
       </c>
       <c r="I31">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J31">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.06227666666666667</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N31">
-        <v>0.18683</v>
+        <v>0.106456</v>
       </c>
       <c r="O31">
-        <v>0.001649611148959154</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P31">
-        <v>0.001649611148959154</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q31">
-        <v>0.02797060992444445</v>
+        <v>0.04709533006577778</v>
       </c>
       <c r="R31">
-        <v>0.25173548932</v>
+        <v>0.423857970592</v>
       </c>
       <c r="S31">
-        <v>1.346598062065392E-05</v>
+        <v>1.988204546509474E-05</v>
       </c>
       <c r="T31">
-        <v>1.346598062065393E-05</v>
+        <v>1.988204546509474E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.630923</v>
+      </c>
+      <c r="H32">
+        <v>1.892769</v>
+      </c>
+      <c r="I32">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J32">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>30.74980833333333</v>
+      </c>
+      <c r="N32">
+        <v>92.249425</v>
+      </c>
+      <c r="O32">
+        <v>0.8062634835844341</v>
+      </c>
+      <c r="P32">
+        <v>0.8062634835844344</v>
+      </c>
+      <c r="Q32">
+        <v>19.40076132309167</v>
+      </c>
+      <c r="R32">
+        <v>174.606851907825</v>
+      </c>
+      <c r="S32">
+        <v>0.008190341126061068</v>
+      </c>
+      <c r="T32">
+        <v>0.00819034112606107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.630923</v>
+      </c>
+      <c r="H33">
+        <v>1.892769</v>
+      </c>
+      <c r="I33">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J33">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.925155666666666</v>
+      </c>
+      <c r="N33">
+        <v>14.775467</v>
+      </c>
+      <c r="O33">
+        <v>0.1291381436253597</v>
+      </c>
+      <c r="P33">
+        <v>0.1291381436253597</v>
+      </c>
+      <c r="Q33">
+        <v>3.107393988680333</v>
+      </c>
+      <c r="R33">
+        <v>27.966545898123</v>
+      </c>
+      <c r="S33">
+        <v>0.001311835981924637</v>
+      </c>
+      <c r="T33">
+        <v>0.001311835981924637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.630923</v>
+      </c>
+      <c r="H34">
+        <v>1.892769</v>
+      </c>
+      <c r="I34">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J34">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.043902</v>
+      </c>
+      <c r="N34">
+        <v>0.131706</v>
+      </c>
+      <c r="O34">
+        <v>0.00115111544997675</v>
+      </c>
+      <c r="P34">
+        <v>0.001151115449976751</v>
+      </c>
+      <c r="Q34">
+        <v>0.027698781546</v>
+      </c>
+      <c r="R34">
+        <v>0.249289033914</v>
+      </c>
+      <c r="S34">
+        <v>1.169348284121011E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.169348284121011E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.630923</v>
+      </c>
+      <c r="H35">
+        <v>1.892769</v>
+      </c>
+      <c r="I35">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J35">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.297296</v>
+      </c>
+      <c r="N35">
+        <v>6.891888</v>
+      </c>
+      <c r="O35">
+        <v>0.06023536328116688</v>
+      </c>
+      <c r="P35">
+        <v>0.06023536328116691</v>
+      </c>
+      <c r="Q35">
+        <v>1.449416884208</v>
+      </c>
+      <c r="R35">
+        <v>13.044751957872</v>
+      </c>
+      <c r="S35">
+        <v>0.0006118944776361127</v>
+      </c>
+      <c r="T35">
+        <v>0.0006118944776361129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.630923</v>
+      </c>
+      <c r="H36">
+        <v>1.892769</v>
+      </c>
+      <c r="I36">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J36">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.08701199999999999</v>
+      </c>
+      <c r="N36">
+        <v>0.261036</v>
+      </c>
+      <c r="O36">
+        <v>0.002281464569572616</v>
+      </c>
+      <c r="P36">
+        <v>0.002281464569572617</v>
+      </c>
+      <c r="Q36">
+        <v>0.054897872076</v>
+      </c>
+      <c r="R36">
+        <v>0.494080848684</v>
+      </c>
+      <c r="S36">
+        <v>2.317601314243939E-05</v>
+      </c>
+      <c r="T36">
+        <v>2.31760131424394E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.630923</v>
+      </c>
+      <c r="H37">
+        <v>1.892769</v>
+      </c>
+      <c r="I37">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J37">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.106456</v>
+      </c>
+      <c r="O37">
+        <v>0.0009304294894896583</v>
+      </c>
+      <c r="P37">
+        <v>0.0009304294894896586</v>
+      </c>
+      <c r="Q37">
+        <v>0.02238851296266667</v>
+      </c>
+      <c r="R37">
+        <v>0.201496616664</v>
+      </c>
+      <c r="S37">
+        <v>9.451668180218545E-06</v>
+      </c>
+      <c r="T37">
+        <v>9.451668180218547E-06</v>
       </c>
     </row>
   </sheetData>
